--- a/biology/Zoologie/Acanthophis_wellsi/Acanthophis_wellsi.xlsx
+++ b/biology/Zoologie/Acanthophis_wellsi/Acanthophis_wellsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthophis wellsi est une espèce de serpents de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthophis wellsi est une espèce de serpents de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie-Occidentale[1]. Elle se rencontre dans les monts Hamersley et Chichester dans le Pilbara.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie-Occidentale. Elle se rencontre dans les monts Hamersley et Chichester dans le Pilbara.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (5 août 2011)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (5 août 2011) :
 Acanthophis wellsi wellsi Hoser, 1998
 Acanthophis wellsi donnellani Hoser, 2002</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Richard Walter Wells. La sous-espèce Acanthophis wellsi donnellani est nommée en l'honneur de Stephen Charles Donnellan[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Richard Walter Wells. La sous-espèce Acanthophis wellsi donnellani est nommée en l'honneur de Stephen Charles Donnellan
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hoser, 1998 : Death Adders (Genus Acanthophis): An overview, including descriptions of five new species and one subspecies. Monitor, vol. 9, no 2, p. 20-41 (texte intégral).
 Hoser, 2002 : Death adders (genus Acanthophis): an updated overview, including description of 3 new island species and 2 new Australian suspecies. Crocodilian, vol. 4, no 1, 5p. -7, 9-11, 14, 16-22, 24-30 (texte intégral).</t>
